--- a/MySite Documents/leeg interview.xlsx
+++ b/MySite Documents/leeg interview.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="108" windowWidth="11340" windowHeight="7140"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="11340" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -505,31 +505,7 @@
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <condense val="0"/>
@@ -841,30 +817,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="112.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="112.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
@@ -873,7 +849,7 @@
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
@@ -882,18 +858,18 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="26"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
@@ -904,7 +880,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -920,7 +896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <f>A8+1</f>
         <v>2</v>
@@ -938,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <f t="shared" ref="A10:A37" si="2">A9+1</f>
         <v>3</v>
@@ -956,7 +932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -974,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -991,7 +967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -1008,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -1025,7 +1001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -1042,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -1059,7 +1035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -1076,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -1093,7 +1069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -1110,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -1127,7 +1103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -1144,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -1161,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -1178,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -1195,7 +1171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -1212,7 +1188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -1229,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -1246,7 +1222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -1263,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -1275,7 +1251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -1292,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -1309,7 +1285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -1326,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -1343,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -1360,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -1377,7 +1353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -1394,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -1411,7 +1387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="C38" s="21" t="s">
         <v>26</v>
@@ -1425,7 +1401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="21" t="s">
@@ -1440,7 +1416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F41" t="s">
         <v>36</v>
       </c>
@@ -1452,7 +1428,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C8:C45">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1469,7 +1445,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1483,7 +1459,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1541,6 +1517,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1549,20 +1531,33 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B9C8E0B-A753-4A00-B6FB-EAE63B90091A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B9C8E0B-A753-4A00-B6FB-EAE63B90091A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9871EDB3-C7BC-4ED4-8CCC-2994515CDD0D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5CC6976-B5F4-4FB3-80E6-5BD840B830B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5CC6976-B5F4-4FB3-80E6-5BD840B830B0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9871EDB3-C7BC-4ED4-8CCC-2994515CDD0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>